--- a/me/1.training_sass/11-exe-grid.xlsx
+++ b/me/1.training_sass/11-exe-grid.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3857B8A-94FB-4DE2-8108-4E32DB05896C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D5230-A76C-48DB-99CD-D30127BB8DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell-x" sheetId="1" r:id="rId1"/>
+    <sheet name="Media" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="174">
   <si>
     <t>構成</t>
   </si>
@@ -467,6 +468,175 @@
   <si>
     <t>width: 104.83px</t>
   </si>
+  <si>
+    <t>$mapSize     : (</t>
+  </si>
+  <si>
+    <t>    1000: 4,</t>
+  </si>
+  <si>
+    <t>    850: 6,</t>
+  </si>
+  <si>
+    <t>    450: 4,</t>
+  </si>
+  <si>
+    <t>    380: 2</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>@each $maxSize, $maxColumn in $mapSize {</t>
+  </si>
+  <si>
+    <t>        @for $i from 1 through $maxColumn {</t>
+  </si>
+  <si>
+    <t>            #grid.cell-#{$maxSize}-#{$i} &gt; div {</t>
+  </si>
+  <si>
+    <t>                width: 100% / $i;</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <r>
+      <t>    &lt;div id="grid" class="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell-12 cell-850-5 cell-450-3 cell-380-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>cell-12</t>
+  </si>
+  <si>
+    <t>cell-850-5</t>
+  </si>
+  <si>
+    <t>40+2+764+2+40=848px</t>
+  </si>
+  <si>
+    <t>cell-450-3</t>
+  </si>
+  <si>
+    <t>40+2+366+2+40=450</t>
+  </si>
+  <si>
+    <t>style.css</t>
+  </si>
+  <si>
+    <t>#grid.cell-12 &gt; div {</t>
+  </si>
+  <si>
+    <t>@media screen and (max-width: 1000px) {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-1000-1 &gt; div {</t>
+  </si>
+  <si>
+    <t>    width: 100%; }</t>
+  </si>
+  <si>
+    <t>  #grid.cell-1000-2 &gt; div {</t>
+  </si>
+  <si>
+    <t>    width: 50%; }</t>
+  </si>
+  <si>
+    <t>  #grid.cell-1000-3 &gt; div {</t>
+  </si>
+  <si>
+    <t>    width: 33.33333%; }</t>
+  </si>
+  <si>
+    <t>  #grid.cell-1000-4 &gt; div {</t>
+  </si>
+  <si>
+    <t>    width: 25%; } }</t>
+  </si>
+  <si>
+    <t>@media screen and (max-width: 850px) {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-850-1 &gt; div {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-850-2 &gt; div {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-850-3 &gt; div {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-850-4 &gt; div {</t>
+  </si>
+  <si>
+    <t>    width: 25%; }</t>
+  </si>
+  <si>
+    <t>  #grid.cell-850-5 &gt; div {</t>
+  </si>
+  <si>
+    <t>    width: 20%; }</t>
+  </si>
+  <si>
+    <t>  #grid.cell-850-6 &gt; div {</t>
+  </si>
+  <si>
+    <t>    width: 16.66667%; } }</t>
+  </si>
+  <si>
+    <t>@media screen and (max-width: 450px) {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-450-1 &gt; div {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-450-2 &gt; div {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-450-3 &gt; div {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-450-4 &gt; div {</t>
+  </si>
+  <si>
+    <t>@media screen and (max-width: 380px) {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-380-1 &gt; div {</t>
+  </si>
+  <si>
+    <t>  #grid.cell-380-2 &gt; div {</t>
+  </si>
+  <si>
+    <t>    width: 50%; } }</t>
+  </si>
+  <si>
+    <t>    @media screen and (max-width: #{$maxSize}px){</t>
+  </si>
 </sst>
 </file>
 
@@ -488,15 +658,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -664,11 +840,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -695,6 +951,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,6 +1224,302 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DE9DF1-4813-0FE0-445D-0450ED29015A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="819150" y="13315950"/>
+          <a:ext cx="1247775" cy="4219575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>351009</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>8738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66297AC0-C8D4-32F5-6088-EF5B912FB5F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17716500"/>
+          <a:ext cx="11323809" cy="6295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFA49C0-A5AC-473F-82C3-D162BF088638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1143000" y="13315950"/>
+          <a:ext cx="1466850" cy="10877550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>579440</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>189774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4493EE5D-9331-D867-1371-159271FC9C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="24669750"/>
+          <a:ext cx="12676190" cy="5809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>522292</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>189702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DADB2AF-3EC1-1E96-BBA7-512A033959AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="31337250"/>
+          <a:ext cx="12666667" cy="6380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C63D507-89DC-CEA9-7E02-E3E04C18732B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1247775" y="13325475"/>
+          <a:ext cx="2047875" cy="17535525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1229,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,4 +3164,2029 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60698104-DC0C-4D2B-B994-692DECAD8013}">
+  <dimension ref="A2:O283"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="20"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="20"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="30"/>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="30"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="30"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="30"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="30"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="30"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="30"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="21"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="20"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="21"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="21"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="21"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="21"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="21"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="21"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="21"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="21"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="21"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="21"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="21"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="21"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="21"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="21"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="21"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="25"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="20"/>
+      <c r="C93" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="21"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="20"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="21"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="20"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="12"/>
+      <c r="G95" s="21"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="20"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="21"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="20"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="21"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="20"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="21"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="20"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="21"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="20"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="12"/>
+      <c r="G100" s="21"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="22"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F101" s="23"/>
+      <c r="G101" s="25"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="19"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="21"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="21"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="20"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="21"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="21"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="21"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="21"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="21"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="21"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="21"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="21"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="21"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="21"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="21"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="21"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="21"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="21"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="20"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="21"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="21"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="21"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="20"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="21"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="21"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="21"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="20"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="21"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="21"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="21"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="20"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="21"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="21"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="21"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="20"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="21"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="21"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="21"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="20"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="21"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="21"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="21"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="20"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="21"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="21"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="21"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="20"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="21"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="21"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="21"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="20"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="21"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="21"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="21"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="20"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="21"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="21"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="21"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="20"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="21"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="21"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="21"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="20"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="21"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="21"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="21"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="20"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="21"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="21"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="21"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="20"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="21"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B161" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="21"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="21"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B163" s="20"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="21"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B164" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="21"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B165" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="21"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B166" s="20"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="21"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B167" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="21"/>
+      <c r="L167" s="12"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B168" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="21"/>
+      <c r="J168" s="12"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B169" s="20"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="21"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="28"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B171" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="30"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B172" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="30"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B173" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="30"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B174" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="30"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B175" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="30"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B176" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="30"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="30"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="30"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="29"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="30"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="30"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="30"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="30"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="30"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="30"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="30"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="30"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="30"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="30"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="30"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="30"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="30"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="30"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="29"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="30"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="30"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="30"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="30"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="30"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="30"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="30"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="30"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="30"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="30"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="29"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="30"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="30"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="30"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="30"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="30"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="33"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C248" s="6"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>